--- a/data/Output/xlsx/result_winter_benchmark.xlsx
+++ b/data/Output/xlsx/result_winter_benchmark.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-0.008765295871181231</v>
+        <v>-0.14515378372142</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05940669946253448</v>
+        <v>0.002578162858268339</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-0.9563609290668994</v>
+        <v>-0.04150464928579773</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>0.9563609290668994</v>
+        <v>0.04150464928579773</v>
       </c>
       <c r="V2">
         <v>2.030312222222222</v>
@@ -674,7 +674,7 @@
         <v>99.8691378535769</v>
       </c>
       <c r="C3">
-        <v>55.2181953546655</v>
+        <v>59.79247675357101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2433766115846247</v>
+        <v>0.2333433429337327</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2029330547927245</v>
+        <v>0.1987525261881862</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.031989653202521</v>
+        <v>-1.990129588177552</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.031989653202521</v>
+        <v>1.990129588177552</v>
       </c>
       <c r="V3">
         <v>2.033183333333334</v>
@@ -745,28 +745,28 @@
         <v>152.361840420158</v>
       </c>
       <c r="C4">
-        <v>45.0582470886529</v>
+        <v>49.84182881268325</v>
       </c>
       <c r="D4">
-        <v>-0.9078127443841029</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.04539063721920514</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5117950771491421</v>
+        <v>0.3759768126499644</v>
       </c>
       <c r="H4">
-        <v>0.1383160204912364</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3125349180927181</v>
+        <v>0.3135756497560758</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.9078127443841029</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.051267674575612</v>
+        <v>-2.058098332832875</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.051267674575612</v>
+        <v>2.058098332832875</v>
       </c>
       <c r="V4">
         <v>2.059815555555555</v>
@@ -816,28 +816,28 @@
         <v>93.46411879248622</v>
       </c>
       <c r="C5">
-        <v>30.26284499385432</v>
+        <v>39.55133714851888</v>
       </c>
       <c r="D5">
-        <v>-0.003768467181825219</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.000188423359091261</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2298635735269298</v>
+        <v>0.2184630164940139</v>
       </c>
       <c r="H5">
-        <v>0.000352216464347698</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1914893362665469</v>
+        <v>0.1868858610296434</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.003768467181825219</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-2.048800531589039</v>
+        <v>-1.999546600814553</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>2.048800531589039</v>
+        <v>1.999546600814553</v>
       </c>
       <c r="V5">
         <v>2.05126</v>
@@ -887,19 +887,19 @@
         <v>81.46031327881542</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>29.55360414444611</v>
       </c>
       <c r="D6">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.136538824136175</v>
+        <v>0.07458080040780168</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1148093851485963</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-0</v>
+        <v>-1.409390420039713</v>
       </c>
       <c r="T6">
         <v>-0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.409390420039713</v>
       </c>
       <c r="V6">
         <v>2.055824444444445</v>
@@ -958,28 +958,28 @@
         <v>127.0049316735677</v>
       </c>
       <c r="C7">
-        <v>67.8544429863008</v>
+        <v>22.50665204424755</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.01766000509953924</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0008830002549769622</v>
       </c>
       <c r="G7">
-        <v>0.378210780224896</v>
+        <v>0.3784218167111829</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002242907741021839</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3162850029507335</v>
+        <v>0.3154383899279272</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.01766000509953924</v>
       </c>
       <c r="S7">
-        <v>-2.490336389169987</v>
+        <v>-2.48367040374997</v>
       </c>
       <c r="T7">
         <v>-0</v>
       </c>
       <c r="U7">
-        <v>2.490336389169987</v>
+        <v>2.48367040374997</v>
       </c>
       <c r="V7">
         <v>2.499071111111111</v>
@@ -1029,19 +1029,19 @@
         <v>70.21812993852845</v>
       </c>
       <c r="C8">
-        <v>55.40276104045086</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.320799690749062</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.4660399845374531</v>
       </c>
       <c r="G8">
-        <v>0.09678039193623486</v>
+        <v>-1.083543146084746</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1645569122674019</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9.320799690749062</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-2.34351032150046</v>
+        <v>-0</v>
       </c>
       <c r="T8">
         <v>-0</v>
       </c>
       <c r="U8">
-        <v>2.34351032150046</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>3.538452222222222</v>
@@ -1100,19 +1100,19 @@
         <v>91.85273864510977</v>
       </c>
       <c r="C9">
-        <v>43.68520943294855</v>
+        <v>56.60399845374531</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.679200309250939</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.3339600154625469</v>
       </c>
       <c r="G9">
-        <v>0.3749340524100872</v>
+        <v>-1.09195024420232</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3150062079027692</v>
+        <v>0.0104044019153018</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.003297363072960122</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.675902946177979</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-3.31289995973473</v>
+        <v>-0</v>
       </c>
       <c r="T9">
-        <v>-0.11657</v>
+        <v>-0.1132726369270399</v>
       </c>
       <c r="U9">
-        <v>3.42946995973473</v>
+        <v>0.1132726369270399</v>
       </c>
       <c r="V9">
         <v>3.457353333333334</v>
@@ -1171,7 +1171,7 @@
         <v>96.96965144124314</v>
       </c>
       <c r="C10">
-        <v>27.1207096342749</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3942659165054713</v>
+        <v>0.3514105960740437</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3295261418330644</v>
+        <v>0.3116697583199696</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-1.408169933168516</v>
+        <v>-1.224025891731855</v>
       </c>
       <c r="T10">
         <v>-1.99007</v>
       </c>
       <c r="U10">
-        <v>3.398239933168516</v>
+        <v>3.214095891731855</v>
       </c>
       <c r="V10">
         <v>3.408255555555555</v>
@@ -1242,19 +1242,19 @@
         <v>95.11168696376102</v>
       </c>
       <c r="C11">
-        <v>20.07985996843232</v>
+        <v>83.87987054134072</v>
       </c>
       <c r="D11">
-        <v>9.570354258178064</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.4785177129089032</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.7608878456915465</v>
+        <v>0.3930343768798842</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3066550203301021</v>
+        <v>0.3333717639196437</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.02191290512119393</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>9.548441353056869</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-0</v>
+        <v>-0.2589857356496412</v>
       </c>
       <c r="T11">
-        <v>-3.224157094878806</v>
+        <v>-3.24607</v>
       </c>
       <c r="U11">
-        <v>3.224157094878806</v>
+        <v>3.505055735649641</v>
       </c>
       <c r="V11">
         <v>3.56649</v>
@@ -1313,7 +1313,7 @@
         <v>115.0278364100934</v>
       </c>
       <c r="C12">
-        <v>67.93163125932264</v>
+        <v>82.58494186309252</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6309169061245212</v>
+        <v>0.6281312185726018</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5260631138463482</v>
+        <v>0.5249024106997151</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-0.6665181860738958</v>
+        <v>-0.6564275577281187</v>
       </c>
       <c r="T12">
         <v>-3.906836666666667</v>
       </c>
       <c r="U12">
-        <v>4.573354852740563</v>
+        <v>4.563264224394786</v>
       </c>
       <c r="V12">
         <v>4.575954444444444</v>
@@ -1384,7 +1384,7 @@
         <v>124.7127105542858</v>
       </c>
       <c r="C13">
-        <v>64.59904032895317</v>
+        <v>79.30280407445193</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7537430759831732</v>
+        <v>0.7550792749618201</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6288920028485397</v>
+        <v>0.6294487524229758</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-0.6028402424278907</v>
+        <v>-0.6073044992944263</v>
       </c>
       <c r="T13">
         <v>-4.439885555555556</v>
       </c>
       <c r="U13">
-        <v>5.042725797983446</v>
+        <v>5.047190054849982</v>
       </c>
       <c r="V13">
         <v>5.048922222222222</v>
@@ -1455,28 +1455,28 @@
         <v>138.930641814168</v>
       </c>
       <c r="C14">
-        <v>61.5848391168137</v>
+        <v>76.2662815779798</v>
       </c>
       <c r="D14">
-        <v>-1.781167773387716</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.08905838866938579</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1.151308755096083</v>
+        <v>0.9034610708815799</v>
       </c>
       <c r="H14">
-        <v>0.2474587819354678</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.753572615838031</v>
+        <v>0.7534105732217662</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1500,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1.781167773387716</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.099364459887123</v>
+        <v>-1.098198103681256</v>
       </c>
       <c r="T14">
         <v>-4.324727777777778</v>
       </c>
       <c r="U14">
-        <v>5.424092237664901</v>
+        <v>5.422925881459035</v>
       </c>
       <c r="V14">
         <v>5.426714444444444</v>
@@ -1526,7 +1526,7 @@
         <v>125.3210256340348</v>
       </c>
       <c r="C15">
-        <v>47.18217795043952</v>
+        <v>70.77529105957352</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8147722899029354</v>
+        <v>0.8149576730592422</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6792079245642525</v>
+        <v>0.679285167546047</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-1.216866603725212</v>
+        <v>-1.217482964638344</v>
       </c>
       <c r="T15">
         <v>-4.202877777777778</v>
       </c>
       <c r="U15">
-        <v>5.41974438150299</v>
+        <v>5.420360742416122</v>
       </c>
       <c r="V15">
         <v>5.421587777777778</v>
@@ -1597,19 +1597,19 @@
         <v>103.521455253314</v>
       </c>
       <c r="C16">
-        <v>41.09784493181346</v>
+        <v>64.6878762363818</v>
       </c>
       <c r="D16">
-        <v>9.780431013637308</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.4890215506818654</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>-1.009269923122023</v>
+        <v>0.5967105673066696</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3382461764074972</v>
+        <v>0.5013910689537905</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.004416101672870987</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>9.776014911964438</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1645,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-0</v>
+        <v>-1.571536362935383</v>
       </c>
       <c r="T16">
-        <v>-3.267401676104907</v>
+        <v>-3.271817777777778</v>
       </c>
       <c r="U16">
-        <v>3.267401676104907</v>
+        <v>4.843354140713161</v>
       </c>
       <c r="V16">
         <v>4.883271111111111</v>
@@ -1668,7 +1668,7 @@
         <v>109.2466351465852</v>
       </c>
       <c r="C17">
-        <v>89.99999999999999</v>
+        <v>56.83019442170488</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.1426753463340029</v>
+        <v>0.4595789446826667</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2620819972414418</v>
+        <v>0.3941251632200518</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1716,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-1.059933771202059</v>
+        <v>-2.268604095935053</v>
       </c>
       <c r="T17">
         <v>-1.33906</v>
       </c>
       <c r="U17">
-        <v>2.398993771202059</v>
+        <v>3.607664095935053</v>
       </c>
       <c r="V17">
         <v>3.70966</v>
@@ -1739,19 +1739,19 @@
         <v>94.50539646183699</v>
       </c>
       <c r="C18">
-        <v>84.7003311439897</v>
+        <v>45.48717394202962</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8.902565211594077</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.4451282605797038</v>
       </c>
       <c r="G18">
-        <v>-0.2076820297504452</v>
+        <v>-1.390318589447058</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07712459620613613</v>
+        <v>0.003347407590764648</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03559972014205143</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.866965491452024</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-0.745066690216473</v>
+        <v>-0</v>
       </c>
       <c r="T18">
-        <v>-0.07102</v>
+        <v>-0.03542027985794857</v>
       </c>
       <c r="U18">
-        <v>0.816086690216473</v>
+        <v>0.03542027985794857</v>
       </c>
       <c r="V18">
         <v>3.46348</v>
@@ -1810,7 +1810,7 @@
         <v>106.224125385919</v>
       </c>
       <c r="C19">
-        <v>80.97499769290732</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.4233184729623416</v>
+        <v>0.4129054662137368</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06478277389505489</v>
+        <v>0.4132094152184209</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-0.6098687436558783</v>
+        <v>-3.889977099996869</v>
       </c>
       <c r="T19">
         <v>-0</v>
       </c>
       <c r="U19">
-        <v>0.6098687436558783</v>
+        <v>3.889977099996869</v>
       </c>
       <c r="V19">
         <v>4.540691111111111</v>
@@ -1881,7 +1881,7 @@
         <v>110.4525296034582</v>
       </c>
       <c r="C20">
-        <v>77.92565397462793</v>
+        <v>70.55011450001565</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.43056031992408</v>
+        <v>0.4544669817874545</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4287908998933482</v>
+        <v>0.4387520090030876</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-3.882128380696888</v>
+        <v>-3.972312907438841</v>
       </c>
       <c r="T20">
         <v>-0</v>
       </c>
       <c r="U20">
-        <v>3.882128380696888</v>
+        <v>3.972312907438841</v>
       </c>
       <c r="V20">
         <v>4.5158</v>
@@ -1952,7 +1952,7 @@
         <v>156.3731682987597</v>
       </c>
       <c r="C21">
-        <v>58.51501207114349</v>
+        <v>50.68854996282146</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7238390583130302</v>
+        <v>0.7139995736088874</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6042912363803209</v>
+        <v>0.6001914510869282</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-3.864417680824811</v>
+        <v>-3.838199721963992</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>3.864417680824811</v>
+        <v>3.838199721963992</v>
       </c>
       <c r="V21">
         <v>3.871401111111112</v>
@@ -2023,28 +2023,28 @@
         <v>127.9358663573062</v>
       </c>
       <c r="C22">
-        <v>39.19292366701944</v>
+        <v>31.4975513530015</v>
       </c>
       <c r="D22">
-        <v>-0.1043698193642211</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.005218490968211054</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5629935857920301</v>
+        <v>0.5280837436491818</v>
       </c>
       <c r="H22">
-        <v>0.01335264326191718</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4777400201920385</v>
+        <v>0.4687578539916505</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0.1043698193642211</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>-3.734214914039666</v>
+        <v>-3.664006563120291</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>3.734214914039666</v>
+        <v>3.664006563120291</v>
       </c>
       <c r="V22">
         <v>3.888244444444445</v>
@@ -2094,19 +2094,19 @@
         <v>99.66156348368658</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>13.17751853740005</v>
       </c>
       <c r="D23">
-        <v>2.486191645735807</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.1243095822867904</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.6846514849417844</v>
+        <v>-0.2608895567861296</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05267859679780097</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>2.486191645735807</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-0</v>
+        <v>-0.5285748583145982</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.5285748583145982</v>
       </c>
       <c r="V23">
         <v>3.238612222222222</v>
@@ -2165,28 +2165,28 @@
         <v>100.4162076498942</v>
       </c>
       <c r="C24">
-        <v>32.43095822867904</v>
+        <v>10.53464424582705</v>
       </c>
       <c r="D24">
-        <v>-0.03237219514091461</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.00161860975704573</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.2984444879565519</v>
+        <v>-0.2704487397461248</v>
       </c>
       <c r="H24">
-        <v>0.003250693069352976</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.246403243486286</v>
+        <v>0.01071885405573444</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.03237219514091461</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-2.453819450594893</v>
+        <v>-0.106744262769873</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>2.453819450594893</v>
+        <v>0.106744262769873</v>
       </c>
       <c r="V24">
         <v>2.457886666666667</v>
@@ -2236,7 +2236,7 @@
         <v>98.28781815451808</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.00092293197769</v>
       </c>
       <c r="D25">
         <v>0</v>
